--- a/teste.xlsx
+++ b/teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">oi</t>
   </si>
@@ -28,7 +28,10 @@
     <t xml:space="preserve">teste</t>
   </si>
   <si>
-    <t xml:space="preserve">fds</t>
+    <t xml:space="preserve">re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalala</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,14 +418,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -25,13 +25,13 @@
     <t xml:space="preserve">oi</t>
   </si>
   <si>
-    <t xml:space="preserve">teste</t>
-  </si>
-  <si>
     <t xml:space="preserve">re</t>
   </si>
   <si>
     <t xml:space="preserve">lalala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">larica</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,20 +410,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,9 +431,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1111</v>
+        <v>420</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">oi</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">larica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foi</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,6 +438,14 @@
       </c>
       <c r="B4" s="0" t="n">
         <v>420</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">oi</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">lalala</t>
   </si>
   <si>
-    <t xml:space="preserve">larica</t>
-  </si>
-  <si>
     <t xml:space="preserve">agora</t>
   </si>
   <si>
     <t xml:space="preserve">foi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,18 +439,19 @@
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>420</v>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">oi</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">re</t>
   </si>
   <si>
-    <t xml:space="preserve">lalala</t>
-  </si>
-  <si>
     <t xml:space="preserve">agora</t>
   </si>
   <si>
@@ -41,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--==</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,26 +434,27 @@
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1111</v>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
